--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.256648250557729</v>
+        <v>8.407864500000001</v>
       </c>
       <c r="H2">
-        <v>8.256648250557729</v>
+        <v>16.815729</v>
       </c>
       <c r="I2">
-        <v>0.185160909335466</v>
+        <v>0.1746412504254716</v>
       </c>
       <c r="J2">
-        <v>0.185160909335466</v>
+        <v>0.1287445241256281</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.180800721190486</v>
+        <v>0.202088</v>
       </c>
       <c r="N2">
-        <v>0.180800721190486</v>
+        <v>0.404176</v>
       </c>
       <c r="O2">
-        <v>0.03328723229921456</v>
+        <v>0.03598135019146532</v>
       </c>
       <c r="P2">
-        <v>0.03328723229921456</v>
+        <v>0.02786797984450371</v>
       </c>
       <c r="Q2">
-        <v>1.492807958317002</v>
+        <v>1.699128521076</v>
       </c>
       <c r="R2">
-        <v>1.492807958317002</v>
+        <v>6.796514084304</v>
       </c>
       <c r="S2">
-        <v>0.006163494201783463</v>
+        <v>0.006283827989434288</v>
       </c>
       <c r="T2">
-        <v>0.006163494201783463</v>
+        <v>0.003587849803423226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.256648250557729</v>
+        <v>8.407864500000001</v>
       </c>
       <c r="H3">
-        <v>8.256648250557729</v>
+        <v>16.815729</v>
       </c>
       <c r="I3">
-        <v>0.185160909335466</v>
+        <v>0.1746412504254716</v>
       </c>
       <c r="J3">
-        <v>0.185160909335466</v>
+        <v>0.1287445241256281</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.97039084334425</v>
+        <v>3.084571666666667</v>
       </c>
       <c r="N3">
-        <v>2.97039084334425</v>
+        <v>9.253715</v>
       </c>
       <c r="O3">
-        <v>0.5468788474449011</v>
+        <v>0.549201601920971</v>
       </c>
       <c r="P3">
-        <v>0.5468788474449011</v>
+        <v>0.6380446713975636</v>
       </c>
       <c r="Q3">
-        <v>24.525472360171</v>
+        <v>25.9346606138725</v>
       </c>
       <c r="R3">
-        <v>24.525472360171</v>
+        <v>155.607963683235</v>
       </c>
       <c r="S3">
-        <v>0.1012605846892295</v>
+        <v>0.09591325449515048</v>
       </c>
       <c r="T3">
-        <v>0.1012605846892295</v>
+        <v>0.0821447575899721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.256648250557729</v>
+        <v>8.407864500000001</v>
       </c>
       <c r="H4">
-        <v>8.256648250557729</v>
+        <v>16.815729</v>
       </c>
       <c r="I4">
-        <v>0.185160909335466</v>
+        <v>0.1746412504254716</v>
       </c>
       <c r="J4">
-        <v>0.185160909335466</v>
+        <v>0.1287445241256281</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.153452167344145</v>
+        <v>0.02256566666666666</v>
       </c>
       <c r="N4">
-        <v>0.153452167344145</v>
+        <v>0.06769699999999999</v>
       </c>
       <c r="O4">
-        <v>0.02825208830788276</v>
+        <v>0.004017770251757696</v>
       </c>
       <c r="P4">
-        <v>0.02825208830788276</v>
+        <v>0.004667715627680435</v>
       </c>
       <c r="Q4">
-        <v>1.267000569046327</v>
+        <v>0.1897290676855</v>
       </c>
       <c r="R4">
-        <v>1.267000569046327</v>
+        <v>1.138374406113</v>
       </c>
       <c r="S4">
-        <v>0.005231182361713459</v>
+        <v>0.000701668420689226</v>
       </c>
       <c r="T4">
-        <v>0.005231182361713459</v>
+        <v>0.0006009428272394751</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.256648250557729</v>
+        <v>8.407864500000001</v>
       </c>
       <c r="H5">
-        <v>8.256648250557729</v>
+        <v>16.815729</v>
       </c>
       <c r="I5">
-        <v>0.185160909335466</v>
+        <v>0.1746412504254716</v>
       </c>
       <c r="J5">
-        <v>0.185160909335466</v>
+        <v>0.1287445241256281</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.12688988333106</v>
+        <v>0.006825666666666667</v>
       </c>
       <c r="N5">
-        <v>2.12688988333106</v>
+        <v>0.020477</v>
       </c>
       <c r="O5">
-        <v>0.3915818319480014</v>
+        <v>0.001215295824707777</v>
       </c>
       <c r="P5">
-        <v>0.3915818319480014</v>
+        <v>0.001411891411850042</v>
       </c>
       <c r="Q5">
-        <v>17.56098163433433</v>
+        <v>0.0573892804555</v>
       </c>
       <c r="R5">
-        <v>17.56098163433433</v>
+        <v>0.344335682733</v>
       </c>
       <c r="S5">
-        <v>0.07250564808273957</v>
+        <v>0.0002122407824638209</v>
       </c>
       <c r="T5">
-        <v>0.07250564808273957</v>
+        <v>0.0001817732879356948</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.5606556265575</v>
+        <v>8.407864500000001</v>
       </c>
       <c r="H6">
-        <v>17.5606556265575</v>
+        <v>16.815729</v>
       </c>
       <c r="I6">
-        <v>0.393809553909568</v>
+        <v>0.1746412504254716</v>
       </c>
       <c r="J6">
-        <v>0.393809553909568</v>
+        <v>0.1287445241256281</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.180800721190486</v>
+        <v>0.1563466666666667</v>
       </c>
       <c r="N6">
-        <v>0.180800721190486</v>
+        <v>0.46904</v>
       </c>
       <c r="O6">
-        <v>0.03328723229921456</v>
+        <v>0.02783720045030695</v>
       </c>
       <c r="P6">
-        <v>0.03328723229921456</v>
+        <v>0.03234035980925642</v>
       </c>
       <c r="Q6">
-        <v>3.174979201859362</v>
+        <v>1.31454158836</v>
       </c>
       <c r="R6">
-        <v>3.174979201859362</v>
+        <v>7.887249530160001</v>
       </c>
       <c r="S6">
-        <v>0.01310883010263785</v>
+        <v>0.004861523494986108</v>
       </c>
       <c r="T6">
-        <v>0.01310883010263785</v>
+        <v>0.004163644233694307</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.5606556265575</v>
+        <v>8.407864500000001</v>
       </c>
       <c r="H7">
-        <v>17.5606556265575</v>
+        <v>16.815729</v>
       </c>
       <c r="I7">
-        <v>0.393809553909568</v>
+        <v>0.1746412504254716</v>
       </c>
       <c r="J7">
-        <v>0.393809553909568</v>
+        <v>0.1287445241256281</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.97039084334425</v>
+        <v>2.1440675</v>
       </c>
       <c r="N7">
-        <v>2.97039084334425</v>
+        <v>4.288135</v>
       </c>
       <c r="O7">
-        <v>0.5468788474449011</v>
+        <v>0.3817467813607913</v>
       </c>
       <c r="P7">
-        <v>0.5468788474449011</v>
+        <v>0.2956673819091459</v>
       </c>
       <c r="Q7">
-        <v>52.16201067624809</v>
+        <v>18.02702901885375</v>
       </c>
       <c r="R7">
-        <v>52.16201067624809</v>
+        <v>72.10811607541501</v>
       </c>
       <c r="S7">
-        <v>0.2153661149548552</v>
+        <v>0.06666873524274772</v>
       </c>
       <c r="T7">
-        <v>0.2153661149548552</v>
+        <v>0.03806555638336333</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.5606556265575</v>
+        <v>19.42459466666667</v>
       </c>
       <c r="H8">
-        <v>17.5606556265575</v>
+        <v>58.273784</v>
       </c>
       <c r="I8">
-        <v>0.393809553909568</v>
+        <v>0.4034717140832388</v>
       </c>
       <c r="J8">
-        <v>0.393809553909568</v>
+        <v>0.4461555362886522</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.153452167344145</v>
+        <v>0.202088</v>
       </c>
       <c r="N8">
-        <v>0.153452167344145</v>
+        <v>0.404176</v>
       </c>
       <c r="O8">
-        <v>0.02825208830788276</v>
+        <v>0.03598135019146532</v>
       </c>
       <c r="P8">
-        <v>0.02825208830788276</v>
+        <v>0.02786797984450371</v>
       </c>
       <c r="Q8">
-        <v>2.694720665879403</v>
+        <v>3.925477486997333</v>
       </c>
       <c r="R8">
-        <v>2.694720665879403</v>
+        <v>23.552864921984</v>
       </c>
       <c r="S8">
-        <v>0.01112594229354103</v>
+        <v>0.01451745703677979</v>
       </c>
       <c r="T8">
-        <v>0.01112594229354103</v>
+        <v>0.0124334534928059</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.5606556265575</v>
+        <v>19.42459466666667</v>
       </c>
       <c r="H9">
-        <v>17.5606556265575</v>
+        <v>58.273784</v>
       </c>
       <c r="I9">
-        <v>0.393809553909568</v>
+        <v>0.4034717140832388</v>
       </c>
       <c r="J9">
-        <v>0.393809553909568</v>
+        <v>0.4461555362886522</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.12688988333106</v>
+        <v>3.084571666666667</v>
       </c>
       <c r="N9">
-        <v>2.12688988333106</v>
+        <v>9.253715</v>
       </c>
       <c r="O9">
-        <v>0.3915818319480014</v>
+        <v>0.549201601920971</v>
       </c>
       <c r="P9">
-        <v>0.3915818319480014</v>
+        <v>0.6380446713975636</v>
       </c>
       <c r="Q9">
-        <v>37.34958079678581</v>
+        <v>59.91655434528445</v>
       </c>
       <c r="R9">
-        <v>37.34958079678581</v>
+        <v>539.24898910756</v>
       </c>
       <c r="S9">
-        <v>0.1542086665585339</v>
+        <v>0.2215873117043148</v>
       </c>
       <c r="T9">
-        <v>0.1542086665585339</v>
+        <v>0.2846671625434969</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.19071361988959</v>
+        <v>19.42459466666667</v>
       </c>
       <c r="H10">
-        <v>4.19071361988959</v>
+        <v>58.273784</v>
       </c>
       <c r="I10">
-        <v>0.09397958119032909</v>
+        <v>0.4034717140832388</v>
       </c>
       <c r="J10">
-        <v>0.09397958119032909</v>
+        <v>0.4461555362886522</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.180800721190486</v>
+        <v>0.02256566666666666</v>
       </c>
       <c r="N10">
-        <v>0.180800721190486</v>
+        <v>0.06769699999999999</v>
       </c>
       <c r="O10">
-        <v>0.03328723229921456</v>
+        <v>0.004017770251757696</v>
       </c>
       <c r="P10">
-        <v>0.03328723229921456</v>
+        <v>0.004667715627680435</v>
       </c>
       <c r="Q10">
-        <v>0.7576840447788301</v>
+        <v>0.4383289283831111</v>
       </c>
       <c r="R10">
-        <v>0.7576840447788301</v>
+        <v>3.944960355448</v>
       </c>
       <c r="S10">
-        <v>0.00312832015046538</v>
+        <v>0.001621056650269323</v>
       </c>
       <c r="T10">
-        <v>0.00312832015046538</v>
+        <v>0.002082527169110688</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.19071361988959</v>
+        <v>19.42459466666667</v>
       </c>
       <c r="H11">
-        <v>4.19071361988959</v>
+        <v>58.273784</v>
       </c>
       <c r="I11">
-        <v>0.09397958119032909</v>
+        <v>0.4034717140832388</v>
       </c>
       <c r="J11">
-        <v>0.09397958119032909</v>
+        <v>0.4461555362886522</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>2.97039084334425</v>
+        <v>0.006825666666666667</v>
       </c>
       <c r="N11">
-        <v>2.97039084334425</v>
+        <v>0.020477</v>
       </c>
       <c r="O11">
-        <v>0.5468788474449011</v>
+        <v>0.001215295824707777</v>
       </c>
       <c r="P11">
-        <v>0.5468788474449011</v>
+        <v>0.001411891411850042</v>
       </c>
       <c r="Q11">
-        <v>12.44805736359807</v>
+        <v>0.1325858083297778</v>
       </c>
       <c r="R11">
-        <v>12.44805736359807</v>
+        <v>1.193272274968</v>
       </c>
       <c r="S11">
-        <v>0.05139544504472168</v>
+        <v>0.00049033748951305</v>
       </c>
       <c r="T11">
-        <v>0.05139544504472168</v>
+        <v>0.0006299231700352977</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.19071361988959</v>
+        <v>19.42459466666667</v>
       </c>
       <c r="H12">
-        <v>4.19071361988959</v>
+        <v>58.273784</v>
       </c>
       <c r="I12">
-        <v>0.09397958119032909</v>
+        <v>0.4034717140832388</v>
       </c>
       <c r="J12">
-        <v>0.09397958119032909</v>
+        <v>0.4461555362886522</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.153452167344145</v>
+        <v>0.1563466666666667</v>
       </c>
       <c r="N12">
-        <v>0.153452167344145</v>
+        <v>0.46904</v>
       </c>
       <c r="O12">
-        <v>0.02825208830788276</v>
+        <v>0.02783720045030695</v>
       </c>
       <c r="P12">
-        <v>0.02825208830788276</v>
+        <v>0.03234035980925642</v>
       </c>
       <c r="Q12">
-        <v>0.643074087690685</v>
+        <v>3.036970627484445</v>
       </c>
       <c r="R12">
-        <v>0.643074087690685</v>
+        <v>27.33273564736</v>
       </c>
       <c r="S12">
-        <v>0.002655119426927015</v>
+        <v>0.01123152298096406</v>
       </c>
       <c r="T12">
-        <v>0.002655119426927015</v>
+        <v>0.01442883057446677</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.19071361988959</v>
+        <v>19.42459466666667</v>
       </c>
       <c r="H13">
-        <v>4.19071361988959</v>
+        <v>58.273784</v>
       </c>
       <c r="I13">
-        <v>0.09397958119032909</v>
+        <v>0.4034717140832388</v>
       </c>
       <c r="J13">
-        <v>0.09397958119032909</v>
+        <v>0.4461555362886522</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.12688988333106</v>
+        <v>2.1440675</v>
       </c>
       <c r="N13">
-        <v>2.12688988333106</v>
+        <v>4.288135</v>
       </c>
       <c r="O13">
-        <v>0.3915818319480014</v>
+        <v>0.3817467813607913</v>
       </c>
       <c r="P13">
-        <v>0.3915818319480014</v>
+        <v>0.2956673819091459</v>
       </c>
       <c r="Q13">
-        <v>8.913186402080855</v>
+        <v>41.64764212547334</v>
       </c>
       <c r="R13">
-        <v>8.913186402080855</v>
+        <v>249.88585275284</v>
       </c>
       <c r="S13">
-        <v>0.036800696568215</v>
+        <v>0.1540240282213979</v>
       </c>
       <c r="T13">
-        <v>0.036800696568215</v>
+        <v>0.1319136393387367</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.75344349932023</v>
+        <v>4.779722333333333</v>
       </c>
       <c r="H14">
-        <v>3.75344349932023</v>
+        <v>14.339167</v>
       </c>
       <c r="I14">
-        <v>0.08417350362799834</v>
+        <v>0.09928046354456428</v>
       </c>
       <c r="J14">
-        <v>0.08417350362799834</v>
+        <v>0.1097834790137799</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.180800721190486</v>
+        <v>0.202088</v>
       </c>
       <c r="N14">
-        <v>0.180800721190486</v>
+        <v>0.404176</v>
       </c>
       <c r="O14">
-        <v>0.03328723229921456</v>
+        <v>0.03598135019146532</v>
       </c>
       <c r="P14">
-        <v>0.03328723229921456</v>
+        <v>0.02786797984450371</v>
       </c>
       <c r="Q14">
-        <v>0.6786252916248391</v>
+        <v>0.9659245268986666</v>
       </c>
       <c r="R14">
-        <v>0.6786252916248391</v>
+        <v>5.795547161391999</v>
       </c>
       <c r="S14">
-        <v>0.002801902968703961</v>
+        <v>0.003572245125967974</v>
       </c>
       <c r="T14">
-        <v>0.002801902968703961</v>
+        <v>0.003059443780415515</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.75344349932023</v>
+        <v>4.779722333333333</v>
       </c>
       <c r="H15">
-        <v>3.75344349932023</v>
+        <v>14.339167</v>
       </c>
       <c r="I15">
-        <v>0.08417350362799834</v>
+        <v>0.09928046354456428</v>
       </c>
       <c r="J15">
-        <v>0.08417350362799834</v>
+        <v>0.1097834790137799</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.97039084334425</v>
+        <v>3.084571666666667</v>
       </c>
       <c r="N15">
-        <v>2.97039084334425</v>
+        <v>9.253715</v>
       </c>
       <c r="O15">
-        <v>0.5468788474449011</v>
+        <v>0.549201601920971</v>
       </c>
       <c r="P15">
-        <v>0.5468788474449011</v>
+        <v>0.6380446713975636</v>
       </c>
       <c r="Q15">
-        <v>11.14919420139081</v>
+        <v>14.74339608393389</v>
       </c>
       <c r="R15">
-        <v>11.14919420139081</v>
+        <v>132.690564755405</v>
       </c>
       <c r="S15">
-        <v>0.04603270864947893</v>
+        <v>0.05452498961813126</v>
       </c>
       <c r="T15">
-        <v>0.04603270864947893</v>
+        <v>0.07004676379222853</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.75344349932023</v>
+        <v>4.779722333333333</v>
       </c>
       <c r="H16">
-        <v>3.75344349932023</v>
+        <v>14.339167</v>
       </c>
       <c r="I16">
-        <v>0.08417350362799834</v>
+        <v>0.09928046354456428</v>
       </c>
       <c r="J16">
-        <v>0.08417350362799834</v>
+        <v>0.1097834790137799</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.153452167344145</v>
+        <v>0.02256566666666666</v>
       </c>
       <c r="N16">
-        <v>0.153452167344145</v>
+        <v>0.06769699999999999</v>
       </c>
       <c r="O16">
-        <v>0.02825208830788276</v>
+        <v>0.004017770251757696</v>
       </c>
       <c r="P16">
-        <v>0.02825208830788276</v>
+        <v>0.004667715627680435</v>
       </c>
       <c r="Q16">
-        <v>0.575974039974481</v>
+        <v>0.1078576209332222</v>
       </c>
       <c r="R16">
-        <v>0.575974039974481</v>
+        <v>0.9707185883989999</v>
       </c>
       <c r="S16">
-        <v>0.002378077257682099</v>
+        <v>0.0003988860930100648</v>
       </c>
       <c r="T16">
-        <v>0.002378077257682099</v>
+        <v>0.0005124380606537476</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.75344349932023</v>
+        <v>4.779722333333333</v>
       </c>
       <c r="H17">
-        <v>3.75344349932023</v>
+        <v>14.339167</v>
       </c>
       <c r="I17">
-        <v>0.08417350362799834</v>
+        <v>0.09928046354456428</v>
       </c>
       <c r="J17">
-        <v>0.08417350362799834</v>
+        <v>0.1097834790137799</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>2.12688988333106</v>
+        <v>0.006825666666666667</v>
       </c>
       <c r="N17">
-        <v>2.12688988333106</v>
+        <v>0.020477</v>
       </c>
       <c r="O17">
-        <v>0.3915818319480014</v>
+        <v>0.001215295824707777</v>
       </c>
       <c r="P17">
-        <v>0.3915818319480014</v>
+        <v>0.001411891411850042</v>
       </c>
       <c r="Q17">
-        <v>7.98316100635893</v>
+        <v>0.03262479140655555</v>
       </c>
       <c r="R17">
-        <v>7.98316100635893</v>
+        <v>0.293623122659</v>
       </c>
       <c r="S17">
-        <v>0.03296081475213334</v>
+        <v>0.0001206551328207616</v>
       </c>
       <c r="T17">
-        <v>0.03296081475213334</v>
+        <v>0.0001550023511825752</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.76882659012088</v>
+        <v>4.779722333333333</v>
       </c>
       <c r="H18">
-        <v>5.76882659012088</v>
+        <v>14.339167</v>
       </c>
       <c r="I18">
-        <v>0.1293698295980145</v>
+        <v>0.09928046354456428</v>
       </c>
       <c r="J18">
-        <v>0.1293698295980145</v>
+        <v>0.1097834790137799</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.180800721190486</v>
+        <v>0.1563466666666667</v>
       </c>
       <c r="N18">
-        <v>0.180800721190486</v>
+        <v>0.46904</v>
       </c>
       <c r="O18">
-        <v>0.03328723229921456</v>
+        <v>0.02783720045030695</v>
       </c>
       <c r="P18">
-        <v>0.03328723229921456</v>
+        <v>0.03234035980925642</v>
       </c>
       <c r="Q18">
-        <v>1.043008007916707</v>
+        <v>0.7472936544088888</v>
       </c>
       <c r="R18">
-        <v>1.043008007916707</v>
+        <v>6.72564288968</v>
       </c>
       <c r="S18">
-        <v>0.004306363570338911</v>
+        <v>0.002763690164489428</v>
       </c>
       <c r="T18">
-        <v>0.004306363570338911</v>
+        <v>0.003550437212417594</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.76882659012088</v>
+        <v>4.779722333333333</v>
       </c>
       <c r="H19">
-        <v>5.76882659012088</v>
+        <v>14.339167</v>
       </c>
       <c r="I19">
-        <v>0.1293698295980145</v>
+        <v>0.09928046354456428</v>
       </c>
       <c r="J19">
-        <v>0.1293698295980145</v>
+        <v>0.1097834790137799</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.97039084334425</v>
+        <v>2.1440675</v>
       </c>
       <c r="N19">
-        <v>2.97039084334425</v>
+        <v>4.288135</v>
       </c>
       <c r="O19">
-        <v>0.5468788474449011</v>
+        <v>0.3817467813607913</v>
       </c>
       <c r="P19">
-        <v>0.5468788474449011</v>
+        <v>0.2956673819091459</v>
       </c>
       <c r="Q19">
-        <v>17.13566968013589</v>
+        <v>10.24804731392417</v>
       </c>
       <c r="R19">
-        <v>17.13566968013589</v>
+        <v>61.48828388354501</v>
       </c>
       <c r="S19">
-        <v>0.07074962330470541</v>
+        <v>0.03789999741014479</v>
       </c>
       <c r="T19">
-        <v>0.07074962330470541</v>
+        <v>0.03245939381688197</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.76882659012088</v>
+        <v>4.270345666666667</v>
       </c>
       <c r="H20">
-        <v>5.76882659012088</v>
+        <v>12.811037</v>
       </c>
       <c r="I20">
-        <v>0.1293698295980145</v>
+        <v>0.08870011011424613</v>
       </c>
       <c r="J20">
-        <v>0.1293698295980145</v>
+        <v>0.09808381558247128</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.153452167344145</v>
+        <v>0.202088</v>
       </c>
       <c r="N20">
-        <v>0.153452167344145</v>
+        <v>0.404176</v>
       </c>
       <c r="O20">
-        <v>0.02825208830788276</v>
+        <v>0.03598135019146532</v>
       </c>
       <c r="P20">
-        <v>0.02825208830788276</v>
+        <v>0.02786797984450371</v>
       </c>
       <c r="Q20">
-        <v>0.8852389432865826</v>
+        <v>0.8629856150853332</v>
       </c>
       <c r="R20">
-        <v>0.8852389432865826</v>
+        <v>5.177913690511999</v>
       </c>
       <c r="S20">
-        <v>0.00365496785017885</v>
+        <v>0.003191549724042225</v>
       </c>
       <c r="T20">
-        <v>0.00365496785017885</v>
+        <v>0.002733397795724329</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.76882659012088</v>
+        <v>4.270345666666667</v>
       </c>
       <c r="H21">
-        <v>5.76882659012088</v>
+        <v>12.811037</v>
       </c>
       <c r="I21">
-        <v>0.1293698295980145</v>
+        <v>0.08870011011424613</v>
       </c>
       <c r="J21">
-        <v>0.1293698295980145</v>
+        <v>0.09808381558247128</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.12688988333106</v>
+        <v>3.084571666666667</v>
       </c>
       <c r="N21">
-        <v>2.12688988333106</v>
+        <v>9.253715</v>
       </c>
       <c r="O21">
-        <v>0.3915818319480014</v>
+        <v>0.549201601920971</v>
       </c>
       <c r="P21">
-        <v>0.3915818319480014</v>
+        <v>0.6380446713975636</v>
       </c>
       <c r="Q21">
-        <v>12.26965891321932</v>
+        <v>13.17218725027278</v>
       </c>
       <c r="R21">
-        <v>12.26965891321932</v>
+        <v>118.549685252455</v>
       </c>
       <c r="S21">
-        <v>0.05065887487279128</v>
+        <v>0.0487142425653105</v>
       </c>
       <c r="T21">
-        <v>0.05065887487279128</v>
+        <v>0.06258185588273713</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.06145848020746</v>
+        <v>4.270345666666667</v>
       </c>
       <c r="H22">
-        <v>5.06145848020746</v>
+        <v>12.811037</v>
       </c>
       <c r="I22">
-        <v>0.1135066223386243</v>
+        <v>0.08870011011424613</v>
       </c>
       <c r="J22">
-        <v>0.1135066223386243</v>
+        <v>0.09808381558247128</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.180800721190486</v>
+        <v>0.02256566666666666</v>
       </c>
       <c r="N22">
-        <v>0.180800721190486</v>
+        <v>0.06769699999999999</v>
       </c>
       <c r="O22">
-        <v>0.03328723229921456</v>
+        <v>0.004017770251757696</v>
       </c>
       <c r="P22">
-        <v>0.03328723229921456</v>
+        <v>0.004667715627680435</v>
       </c>
       <c r="Q22">
-        <v>0.91511534349721</v>
+        <v>0.09636319686544444</v>
       </c>
       <c r="R22">
-        <v>0.91511534349721</v>
+        <v>0.8672687717889999</v>
       </c>
       <c r="S22">
-        <v>0.003778321305285002</v>
+        <v>0.00035637666374465</v>
       </c>
       <c r="T22">
-        <v>0.003778321305285002</v>
+        <v>0.000457827358816827</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.06145848020746</v>
+        <v>4.270345666666667</v>
       </c>
       <c r="H23">
-        <v>5.06145848020746</v>
+        <v>12.811037</v>
       </c>
       <c r="I23">
-        <v>0.1135066223386243</v>
+        <v>0.08870011011424613</v>
       </c>
       <c r="J23">
-        <v>0.1135066223386243</v>
+        <v>0.09808381558247128</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>2.97039084334425</v>
+        <v>0.006825666666666667</v>
       </c>
       <c r="N23">
-        <v>2.97039084334425</v>
+        <v>0.020477</v>
       </c>
       <c r="O23">
-        <v>0.5468788474449011</v>
+        <v>0.001215295824707777</v>
       </c>
       <c r="P23">
-        <v>0.5468788474449011</v>
+        <v>0.001411891411850042</v>
       </c>
       <c r="Q23">
-        <v>15.03450992357534</v>
+        <v>0.02914795607211111</v>
       </c>
       <c r="R23">
-        <v>15.03450992357534</v>
+        <v>0.262331604649</v>
       </c>
       <c r="S23">
-        <v>0.0620743708019105</v>
+        <v>0.0001077968734729633</v>
       </c>
       <c r="T23">
-        <v>0.0620743708019105</v>
+        <v>0.0001384836968623745</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.06145848020746</v>
+        <v>4.270345666666667</v>
       </c>
       <c r="H24">
-        <v>5.06145848020746</v>
+        <v>12.811037</v>
       </c>
       <c r="I24">
-        <v>0.1135066223386243</v>
+        <v>0.08870011011424613</v>
       </c>
       <c r="J24">
-        <v>0.1135066223386243</v>
+        <v>0.09808381558247128</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.153452167344145</v>
+        <v>0.1563466666666667</v>
       </c>
       <c r="N24">
-        <v>0.153452167344145</v>
+        <v>0.46904</v>
       </c>
       <c r="O24">
-        <v>0.02825208830788276</v>
+        <v>0.02783720045030695</v>
       </c>
       <c r="P24">
-        <v>0.02825208830788276</v>
+        <v>0.03234035980925642</v>
       </c>
       <c r="Q24">
-        <v>0.7766917737102369</v>
+        <v>0.6676543104977778</v>
       </c>
       <c r="R24">
-        <v>0.7766917737102369</v>
+        <v>6.00888879448</v>
       </c>
       <c r="S24">
-        <v>0.003206799117840311</v>
+        <v>0.002469162745214569</v>
       </c>
       <c r="T24">
-        <v>0.003206799117840311</v>
+        <v>0.003172065887401873</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.06145848020746</v>
+        <v>4.270345666666667</v>
       </c>
       <c r="H25">
-        <v>5.06145848020746</v>
+        <v>12.811037</v>
       </c>
       <c r="I25">
-        <v>0.1135066223386243</v>
+        <v>0.08870011011424613</v>
       </c>
       <c r="J25">
-        <v>0.1135066223386243</v>
+        <v>0.09808381558247128</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.12688988333106</v>
+        <v>2.1440675</v>
       </c>
       <c r="N25">
-        <v>2.12688988333106</v>
+        <v>4.288135</v>
       </c>
       <c r="O25">
-        <v>0.3915818319480014</v>
+        <v>0.3817467813607913</v>
       </c>
       <c r="P25">
-        <v>0.3915818319480014</v>
+        <v>0.2956673819091459</v>
       </c>
       <c r="Q25">
-        <v>10.76516483645345</v>
+        <v>9.155909357665834</v>
       </c>
       <c r="R25">
-        <v>10.76516483645345</v>
+        <v>54.935456145995</v>
       </c>
       <c r="S25">
-        <v>0.04444713111358843</v>
+        <v>0.03386098154246123</v>
       </c>
       <c r="T25">
-        <v>0.04444713111358843</v>
+        <v>0.02900018496092877</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.851227666666666</v>
+      </c>
+      <c r="H26">
+        <v>17.553683</v>
+      </c>
+      <c r="I26">
+        <v>0.1215368915889143</v>
+      </c>
+      <c r="J26">
+        <v>0.1343944448966279</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.202088</v>
+      </c>
+      <c r="N26">
+        <v>0.404176</v>
+      </c>
+      <c r="O26">
+        <v>0.03598135019146532</v>
+      </c>
+      <c r="P26">
+        <v>0.02786797984450371</v>
+      </c>
+      <c r="Q26">
+        <v>1.182462896701333</v>
+      </c>
+      <c r="R26">
+        <v>7.094777380208</v>
+      </c>
+      <c r="S26">
+        <v>0.004373061457442883</v>
+      </c>
+      <c r="T26">
+        <v>0.003745301681592491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5.851227666666666</v>
+      </c>
+      <c r="H27">
+        <v>17.553683</v>
+      </c>
+      <c r="I27">
+        <v>0.1215368915889143</v>
+      </c>
+      <c r="J27">
+        <v>0.1343944448966279</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.084571666666667</v>
+      </c>
+      <c r="N27">
+        <v>9.253715</v>
+      </c>
+      <c r="O27">
+        <v>0.549201601920971</v>
+      </c>
+      <c r="P27">
+        <v>0.6380446713975636</v>
+      </c>
+      <c r="Q27">
+        <v>18.04853107581611</v>
+      </c>
+      <c r="R27">
+        <v>162.436779682345</v>
+      </c>
+      <c r="S27">
+        <v>0.06674825555312713</v>
+      </c>
+      <c r="T27">
+        <v>0.08574965943172692</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5.851227666666666</v>
+      </c>
+      <c r="H28">
+        <v>17.553683</v>
+      </c>
+      <c r="I28">
+        <v>0.1215368915889143</v>
+      </c>
+      <c r="J28">
+        <v>0.1343944448966279</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.02256566666666666</v>
+      </c>
+      <c r="N28">
+        <v>0.06769699999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.004017770251757696</v>
+      </c>
+      <c r="P28">
+        <v>0.004667715627680435</v>
+      </c>
+      <c r="Q28">
+        <v>0.1320368531167778</v>
+      </c>
+      <c r="R28">
+        <v>1.188331678051</v>
+      </c>
+      <c r="S28">
+        <v>0.0004883073075170402</v>
+      </c>
+      <c r="T28">
+        <v>0.0006273150507174271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5.851227666666666</v>
+      </c>
+      <c r="H29">
+        <v>17.553683</v>
+      </c>
+      <c r="I29">
+        <v>0.1215368915889143</v>
+      </c>
+      <c r="J29">
+        <v>0.1343944448966279</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.006825666666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.020477</v>
+      </c>
+      <c r="O29">
+        <v>0.001215295824707777</v>
+      </c>
+      <c r="P29">
+        <v>0.001411891411850042</v>
+      </c>
+      <c r="Q29">
+        <v>0.03993852964344444</v>
+      </c>
+      <c r="R29">
+        <v>0.359446766791</v>
+      </c>
+      <c r="S29">
+        <v>0.0001477032768959693</v>
+      </c>
+      <c r="T29">
+        <v>0.0001897503625499026</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5.851227666666666</v>
+      </c>
+      <c r="H30">
+        <v>17.553683</v>
+      </c>
+      <c r="I30">
+        <v>0.1215368915889143</v>
+      </c>
+      <c r="J30">
+        <v>0.1343944448966279</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.1563466666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.46904</v>
+      </c>
+      <c r="O30">
+        <v>0.02783720045030695</v>
+      </c>
+      <c r="P30">
+        <v>0.03234035980925642</v>
+      </c>
+      <c r="Q30">
+        <v>0.914819941591111</v>
+      </c>
+      <c r="R30">
+        <v>8.23337947432</v>
+      </c>
+      <c r="S30">
+        <v>0.003383246813267834</v>
+      </c>
+      <c r="T30">
+        <v>0.004346364704322232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5.851227666666666</v>
+      </c>
+      <c r="H31">
+        <v>17.553683</v>
+      </c>
+      <c r="I31">
+        <v>0.1215368915889143</v>
+      </c>
+      <c r="J31">
+        <v>0.1343944448966279</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.1440675</v>
+      </c>
+      <c r="N31">
+        <v>4.288135</v>
+      </c>
+      <c r="O31">
+        <v>0.3817467813607913</v>
+      </c>
+      <c r="P31">
+        <v>0.2956673819091459</v>
+      </c>
+      <c r="Q31">
+        <v>12.54542707520083</v>
+      </c>
+      <c r="R31">
+        <v>75.272562451205</v>
+      </c>
+      <c r="S31">
+        <v>0.04639631718066347</v>
+      </c>
+      <c r="T31">
+        <v>0.03973605366571895</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>5.4098795</v>
+      </c>
+      <c r="H32">
+        <v>10.819759</v>
+      </c>
+      <c r="I32">
+        <v>0.1123695702435648</v>
+      </c>
+      <c r="J32">
+        <v>0.08283820009284057</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.202088</v>
+      </c>
+      <c r="N32">
+        <v>0.404176</v>
+      </c>
+      <c r="O32">
+        <v>0.03598135019146532</v>
+      </c>
+      <c r="P32">
+        <v>0.02786797984450371</v>
+      </c>
+      <c r="Q32">
+        <v>1.093271728396</v>
+      </c>
+      <c r="R32">
+        <v>4.373086913583999</v>
+      </c>
+      <c r="S32">
+        <v>0.004043208857798168</v>
+      </c>
+      <c r="T32">
+        <v>0.002308533290542246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>5.4098795</v>
+      </c>
+      <c r="H33">
+        <v>10.819759</v>
+      </c>
+      <c r="I33">
+        <v>0.1123695702435648</v>
+      </c>
+      <c r="J33">
+        <v>0.08283820009284057</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3.084571666666667</v>
+      </c>
+      <c r="N33">
+        <v>9.253715</v>
+      </c>
+      <c r="O33">
+        <v>0.549201601920971</v>
+      </c>
+      <c r="P33">
+        <v>0.6380446713975636</v>
+      </c>
+      <c r="Q33">
+        <v>16.68716102578083</v>
+      </c>
+      <c r="R33">
+        <v>100.122966154685</v>
+      </c>
+      <c r="S33">
+        <v>0.06171354798493688</v>
+      </c>
+      <c r="T33">
+        <v>0.05285447215740208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>5.4098795</v>
+      </c>
+      <c r="H34">
+        <v>10.819759</v>
+      </c>
+      <c r="I34">
+        <v>0.1123695702435648</v>
+      </c>
+      <c r="J34">
+        <v>0.08283820009284057</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.02256566666666666</v>
+      </c>
+      <c r="N34">
+        <v>0.06769699999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.004017770251757696</v>
+      </c>
+      <c r="P34">
+        <v>0.004667715627680435</v>
+      </c>
+      <c r="Q34">
+        <v>0.1220775375038333</v>
+      </c>
+      <c r="R34">
+        <v>0.7324652250229999</v>
+      </c>
+      <c r="S34">
+        <v>0.0004514751165273916</v>
+      </c>
+      <c r="T34">
+        <v>0.0003866651611422708</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>5.4098795</v>
+      </c>
+      <c r="H35">
+        <v>10.819759</v>
+      </c>
+      <c r="I35">
+        <v>0.1123695702435648</v>
+      </c>
+      <c r="J35">
+        <v>0.08283820009284057</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.006825666666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.020477</v>
+      </c>
+      <c r="O35">
+        <v>0.001215295824707777</v>
+      </c>
+      <c r="P35">
+        <v>0.001411891411850042</v>
+      </c>
+      <c r="Q35">
+        <v>0.03692603417383333</v>
+      </c>
+      <c r="R35">
+        <v>0.221556205043</v>
+      </c>
+      <c r="S35">
+        <v>0.0001365622695412116</v>
+      </c>
+      <c r="T35">
+        <v>0.0001169585432841969</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>5.4098795</v>
+      </c>
+      <c r="H36">
+        <v>10.819759</v>
+      </c>
+      <c r="I36">
+        <v>0.1123695702435648</v>
+      </c>
+      <c r="J36">
+        <v>0.08283820009284057</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.1563466666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.46904</v>
+      </c>
+      <c r="O36">
+        <v>0.02783720045030695</v>
+      </c>
+      <c r="P36">
+        <v>0.03234035980925642</v>
+      </c>
+      <c r="Q36">
+        <v>0.8458166268933333</v>
+      </c>
+      <c r="R36">
+        <v>5.07489976136</v>
+      </c>
+      <c r="S36">
+        <v>0.003128054251384962</v>
+      </c>
+      <c r="T36">
+        <v>0.002679017196953642</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>5.4098795</v>
+      </c>
+      <c r="H37">
+        <v>10.819759</v>
+      </c>
+      <c r="I37">
+        <v>0.1123695702435648</v>
+      </c>
+      <c r="J37">
+        <v>0.08283820009284057</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.1440675</v>
+      </c>
+      <c r="N37">
+        <v>4.288135</v>
+      </c>
+      <c r="O37">
+        <v>0.3817467813607913</v>
+      </c>
+      <c r="P37">
+        <v>0.2956673819091459</v>
+      </c>
+      <c r="Q37">
+        <v>11.59914681486625</v>
+      </c>
+      <c r="R37">
+        <v>46.396587259465</v>
+      </c>
+      <c r="S37">
+        <v>0.04289672176337622</v>
+      </c>
+      <c r="T37">
+        <v>0.02449255374351613</v>
       </c>
     </row>
   </sheetData>
